--- a/test/temp_test/test_excel.xlsx
+++ b/test/temp_test/test_excel.xlsx
@@ -421,16 +421,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="1" max="1"/>
     <col width="3" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>more characters to test</t>
+          <t>test_1</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -463,7 +463,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>more characters to test</t>
+          <t>test_6</t>
         </is>
       </c>
     </row>
